--- a/biology/Médecine/Profiline_1/Profiline_1.xlsx
+++ b/biology/Médecine/Profiline_1/Profiline_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La profiline 1 est une protéine de la famille des profilines, se fixant sur l'actine. Son gène est le PFN1 situé sur le chromosome 17 humain.
 </t>
@@ -511,9 +523,11 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle intervient dans la migration des cellules souches mésenchymale et leur prolifération[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle intervient dans la migration des cellules souches mésenchymale et leur prolifération.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est exprimée au niveau des plaques d'athérome et participe peut-être à sa genèse[6], par prolifération des cellules endothéliales. Son expression est stimulée par l'angiotensine 2[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est exprimée au niveau des plaques d'athérome et participe peut-être à sa genèse, par prolifération des cellules endothéliales. Son expression est stimulée par l'angiotensine 2.
 </t>
         </is>
       </c>
